--- a/doc/外部設計/04_DB定義書_メガネのやばいシステム屋さん.xlsx
+++ b/doc/外部設計/04_DB定義書_メガネのやばいシステム屋さん.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB6B987E-C758-4526-80B6-6DD684684184}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA176517-9768-403C-A475-960B00FE4685}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="86">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -557,6 +557,17 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_arert</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -619,7 +630,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -655,13 +666,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,13 +700,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1032,7 +1055,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1421,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1535,10 +1558,10 @@
         <f>"create table "&amp;C5&amp;" ("</f>
         <v>create table users (</v>
       </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1567,10 +1590,10 @@
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>user_id varchar (12),</v>
       </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1599,10 +1622,10 @@
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_pw varchar (20),</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1631,31 +1654,41 @@
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>station_home varchar (8)</v>
-      </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
+        <v>station_home varchar (8),</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="O13" s="7"/>
+        <v>user_arert boolean (1)</v>
+      </c>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1674,10 +1707,10 @@
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1696,10 +1729,10 @@
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1718,10 +1751,10 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -2087,12 +2120,12 @@
         <f>"create table "&amp;C5&amp;" ("</f>
         <v>create table plans (</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -2120,12 +2153,12 @@
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>plan_id intger (10000),</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -2154,12 +2187,12 @@
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>plan_date varchar (20),</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -2188,34 +2221,34 @@
         <f t="shared" ref="L12:L15" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>plan_name varchar (10),</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13">
         <v>20</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
         <v>place varchar (20),</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2223,28 +2256,28 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14">
         <v>50</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
         <v>remarks varchar (50),</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -2273,12 +2306,12 @@
         <f t="shared" si="0"/>
         <v>user_id varchar (12)</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -2297,12 +2330,12 @@
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -2318,7 +2351,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" ref="L15:L29" si="1">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L17:L29" si="1">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2554,9 +2587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A11BDBD-E4F6-401F-A6C6-FDBC30D5AE7F}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2573,7 +2604,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -2668,12 +2699,12 @@
         <f>"create table "&amp;C5&amp;" ("</f>
         <v>create table last_trains (</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -2701,12 +2732,12 @@
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>last_train_id intger (10000),</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -2729,18 +2760,20 @@
       <c r="H11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>start_time varchar (5),</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -2771,42 +2804,42 @@
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;" "&amp;"default (false)"&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>over_flag boolean (1) default (false),</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13">
         <v>5</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" t="s">
         <v>37</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>goal_time varchar (5),</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -2821,7 +2854,7 @@
       <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14">
         <v>12</v>
       </c>
       <c r="F14" s="3"/>
@@ -2835,23 +2868,27 @@
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>user_id varchar (12)</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="P15" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -2903,7 +2940,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" ref="L17:L31" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L18:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>

--- a/doc/外部設計/04_DB定義書_メガネのやばいシステム屋さん.xlsx
+++ b/doc/外部設計/04_DB定義書_メガネのやばいシステム屋さん.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA176517-9768-403C-A475-960B00FE4685}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BAF413-DBAB-421A-B149-EDC1AE80B800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="88">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -561,14 +561,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_arert</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>通知ボタン</t>
     <rPh sb="0" eb="2">
       <t>ツウチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_alert</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武村</t>
+    <rPh sb="0" eb="2">
+      <t>タケムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_alert boolean default(false)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -630,7 +641,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -666,22 +677,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,12 +706,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1059,16 +1055,16 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
-    <col min="6" max="6" width="58.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1181,7 +1177,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1190,7 +1186,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1199,7 +1195,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1208,7 +1204,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1217,7 +1213,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -1226,7 +1222,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1235,7 +1231,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1244,7 +1240,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1253,7 +1249,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1262,7 +1258,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1271,7 +1267,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1280,7 +1276,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1289,7 +1285,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1298,7 +1294,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1307,7 +1303,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1316,7 +1312,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1325,7 +1321,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1334,7 +1330,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1343,7 +1339,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1352,7 +1348,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1361,7 +1357,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1370,7 +1366,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1379,7 +1375,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1388,7 +1384,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1397,7 +1393,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1445,23 +1441,23 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -1504,7 +1500,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -1516,7 +1514,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45085</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L8" t="s">
@@ -1666,10 +1666,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>65</v>
@@ -1682,15 +1682,19 @@
       <c r="H13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_arert boolean (1)</v>
-      </c>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>user_alert boolean (1)</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1712,7 +1716,7 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1734,7 +1738,7 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1756,7 +1760,7 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1774,7 +1778,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1792,7 +1796,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1810,7 +1814,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1828,7 +1832,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1846,7 +1850,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1864,7 +1868,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1882,7 +1886,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1900,7 +1904,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1918,7 +1922,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1936,7 +1940,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -1954,7 +1958,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -1972,7 +1976,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -1990,7 +1994,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -2007,23 +2011,23 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P20:P21"/>
+      <selection activeCell="B10" sqref="B10:J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>42</v>
       </c>
@@ -2131,24 +2135,27 @@
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>10000</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>plan_id intger (10000),</v>
@@ -2232,18 +2239,23 @@
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>20</v>
       </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
         <v>place varchar (20),</v>
@@ -2256,18 +2268,23 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>50</v>
       </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
         <v>remarks varchar (50),</v>
@@ -2313,7 +2330,7 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2337,7 +2354,7 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2355,7 +2372,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2373,7 +2390,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2391,7 +2408,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2409,7 +2426,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2427,7 +2444,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2445,7 +2462,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2463,7 +2480,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2481,7 +2498,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2499,7 +2516,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2517,7 +2534,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2535,7 +2552,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2553,7 +2570,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2571,7 +2588,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -2587,22 +2604,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A11BDBD-E4F6-401F-A6C6-FDBC30D5AE7F}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:J15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>57</v>
       </c>
@@ -2710,24 +2729,27 @@
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>10000</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>last_train_id intger (10000),</v>
@@ -2815,21 +2837,25 @@
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>5</v>
       </c>
-      <c r="H13" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>goal_time varchar (5),</v>
@@ -2854,7 +2880,7 @@
       <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>12</v>
       </c>
       <c r="F14" s="3"/>
@@ -2875,14 +2901,19 @@
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
       <c r="P15" s="6" t="s">
         <v>74</v>
       </c>
@@ -2890,7 +2921,7 @@
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2908,7 +2939,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2926,7 +2957,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2944,7 +2975,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2962,7 +2993,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2980,7 +3011,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2998,7 +3029,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3016,7 +3047,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3034,7 +3065,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3052,7 +3083,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3070,7 +3101,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3088,7 +3119,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3106,7 +3137,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3124,7 +3155,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3142,7 +3173,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>

--- a/doc/外部設計/04_DB定義書_メガネのやばいシステム屋さん.xlsx
+++ b/doc/外部設計/04_DB定義書_メガネのやばいシステム屋さん.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BAF413-DBAB-421A-B149-EDC1AE80B800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF33DD9F-043E-48C4-B08F-B359DA6AD07F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -580,6 +580,28 @@
   </si>
   <si>
     <t>user_alert boolean default(false)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終電固有ID</t>
+    <rPh sb="0" eb="2">
+      <t>シュウデン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>syuudeen_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>integer</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1055,16 +1077,16 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="58.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="58.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1199,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1186,7 +1208,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1195,7 +1217,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1204,7 +1226,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1213,7 +1235,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -1222,7 +1244,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1231,7 +1253,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1240,7 +1262,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1249,7 +1271,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1258,7 +1280,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1267,7 +1289,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1276,7 +1298,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1285,7 +1307,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1294,7 +1316,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1303,7 +1325,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1312,7 +1334,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1321,7 +1343,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1330,7 +1352,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1339,7 +1361,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1348,7 +1370,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1357,7 +1379,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1366,7 +1388,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1375,7 +1397,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1384,7 +1406,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1393,7 +1415,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1440,24 +1462,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="7.1796875" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -1694,7 +1716,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1716,7 +1738,7 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" spans="1:18" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1738,7 +1760,7 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
     </row>
-    <row r="16" spans="1:18" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1760,7 +1782,7 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1778,7 +1800,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1796,7 +1818,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1814,7 +1836,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1832,7 +1854,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1850,7 +1872,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1868,7 +1890,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1886,7 +1908,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1904,7 +1926,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1922,7 +1944,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1940,7 +1962,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -1958,7 +1980,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -1976,7 +1998,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -1994,7 +2016,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -2011,23 +2033,23 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:J15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="7.1796875" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>42</v>
       </c>
@@ -2314,7 +2336,9 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
         <v>67</v>
@@ -2330,7 +2354,7 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
     </row>
-    <row r="16" spans="1:18" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2354,7 +2378,7 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2372,7 +2396,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2390,7 +2414,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2408,7 +2432,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2426,7 +2450,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2444,7 +2468,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2462,7 +2486,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2480,7 +2504,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2498,7 +2522,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2516,7 +2540,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2534,7 +2558,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2552,7 +2576,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2570,7 +2594,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2588,7 +2612,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -2604,24 +2628,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A11BDBD-E4F6-401F-A6C6-FDBC30D5AE7F}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="7.1796875" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>57</v>
       </c>
@@ -2736,23 +2760,21 @@
         <v>62</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>last_train_id intger (10000),</v>
+        <v>last_train_id varchar (8),</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>76</v>
@@ -2885,14 +2907,16 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>user_id varchar (12)</v>
+        <v>user_id varchar (12),</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>73</v>
@@ -2901,17 +2925,31 @@
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:19" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="P15" s="6" t="s">
@@ -2921,11 +2959,10 @@
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:19" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2939,7 +2976,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2957,7 +2994,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2975,7 +3012,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2993,7 +3030,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3011,7 +3048,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3029,7 +3066,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3047,7 +3084,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3065,7 +3102,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3083,7 +3120,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3101,7 +3138,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3119,7 +3156,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3137,7 +3174,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3155,7 +3192,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3173,7 +3210,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>

--- a/doc/外部設計/04_DB定義書_メガネのやばいシステム屋さん.xlsx
+++ b/doc/外部設計/04_DB定義書_メガネのやばいシステム屋さん.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF33DD9F-043E-48C4-B08F-B359DA6AD07F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D344E2B6-87B6-43C3-8589-662BCCBB5B19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="93">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -602,6 +602,13 @@
   </si>
   <si>
     <t>integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片平</t>
+    <rPh sb="0" eb="2">
+      <t>カタヒラ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2629,7 +2636,7 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2688,7 +2695,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -2700,7 +2709,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45096</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P8" t="s">
@@ -2767,9 +2778,7 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
@@ -2801,9 +2810,7 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3">
         <v>0</v>
       </c>
@@ -2873,9 +2880,7 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">

--- a/doc/外部設計/04_DB定義書_メガネのやばいシステム屋さん.xlsx
+++ b/doc/外部設計/04_DB定義書_メガネのやばいシステム屋さん.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D344E2B6-87B6-43C3-8589-662BCCBB5B19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F792273-1F65-4822-BECE-BB8661BCFB8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="95">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -609,6 +609,20 @@
     <rPh sb="0" eb="2">
       <t>カタヒラ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終アクセス日時</t>
+    <rPh sb="0" eb="2">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>last_access</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1469,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:H12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1717,7 +1731,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_alert boolean (1)</v>
+        <v>user_alert boolean (1),</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>87</v>
@@ -1727,10 +1741,18 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3">
+        <v>24</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1738,7 +1760,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>last_access varchar (24)</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="7"/>
@@ -2635,7 +2657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A11BDBD-E4F6-401F-A6C6-FDBC30D5AE7F}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/doc/外部設計/04_DB定義書_メガネのやばいシステム屋さん.xlsx
+++ b/doc/外部設計/04_DB定義書_メガネのやばいシステム屋さん.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F792273-1F65-4822-BECE-BB8661BCFB8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16D721F-EA4B-4EF8-A88E-CF94391DB5F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
